--- a/Data fitting/journal.pcbi.1003388.s001.XLSX
+++ b/Data fitting/journal.pcbi.1003388.s001.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A08BED1-33D4-0740-9B32-E969B85ACFE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7942C6E9-D1D4-7445-B8D5-AF38AFB76175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Y" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>undefined_genus_of_Enterobacteriaceae</t>
   </si>
@@ -321,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +343,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +481,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -490,18 +496,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4956,7 +4972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="21" topLeftCell="N22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
@@ -4970,7 +4986,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" s="9" customFormat="1" ht="17" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="9">
@@ -5021,31 +5037,31 @@
       <c r="Q1" s="9">
         <v>3</v>
       </c>
-      <c r="R1" s="15">
-        <v>3</v>
-      </c>
-      <c r="S1" s="15">
-        <v>3</v>
-      </c>
-      <c r="T1" s="15">
-        <v>3</v>
-      </c>
-      <c r="U1" s="15">
-        <v>3</v>
-      </c>
-      <c r="V1" s="15">
-        <v>3</v>
-      </c>
-      <c r="W1" s="15">
-        <v>3</v>
-      </c>
-      <c r="X1" s="15">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="15">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="15">
+      <c r="R1" s="13">
+        <v>3</v>
+      </c>
+      <c r="S1" s="13">
+        <v>3</v>
+      </c>
+      <c r="T1" s="13">
+        <v>3</v>
+      </c>
+      <c r="U1" s="13">
+        <v>3</v>
+      </c>
+      <c r="V1" s="13">
+        <v>3</v>
+      </c>
+      <c r="W1" s="13">
+        <v>3</v>
+      </c>
+      <c r="X1" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="13">
         <v>3</v>
       </c>
       <c r="AA1" s="9">
@@ -5205,239 +5221,239 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:78" s="13" customFormat="1" ht="17" thickBot="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:78" s="11" customFormat="1" ht="17" thickBot="1">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>-2</v>
       </c>
-      <c r="C2" s="13">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
         <v>2</v>
       </c>
-      <c r="F2" s="13">
-        <v>3</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11">
         <v>4</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <v>5</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="11">
         <v>7</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>10</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="11">
         <v>14</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="11">
         <v>21</v>
       </c>
-      <c r="M2" s="13">
-        <v>1</v>
-      </c>
-      <c r="N2" s="13">
-        <v>3</v>
-      </c>
-      <c r="O2" s="13">
+      <c r="M2" s="11">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11">
+        <v>3</v>
+      </c>
+      <c r="O2" s="11">
         <v>7</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="11">
         <v>14</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="11">
         <v>-2</v>
       </c>
-      <c r="R2" s="16">
-        <v>0</v>
-      </c>
-      <c r="S2" s="16">
-        <v>1</v>
-      </c>
-      <c r="T2" s="16">
+      <c r="R2" s="14">
+        <v>0</v>
+      </c>
+      <c r="S2" s="14">
+        <v>1</v>
+      </c>
+      <c r="T2" s="14">
         <v>2</v>
       </c>
-      <c r="U2" s="16">
-        <v>3</v>
-      </c>
-      <c r="V2" s="16">
+      <c r="U2" s="14">
+        <v>3</v>
+      </c>
+      <c r="V2" s="14">
         <v>4</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="14">
         <v>5</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="14">
         <v>10</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="Y2" s="14">
         <v>14</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="14">
         <v>21</v>
       </c>
-      <c r="AA2" s="13">
+      <c r="AA2" s="11">
         <v>-2</v>
       </c>
-      <c r="AB2" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="13">
+      <c r="AB2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="11">
         <v>2</v>
       </c>
-      <c r="AE2" s="13">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="13">
+      <c r="AE2" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="11">
         <v>4</v>
       </c>
-      <c r="AG2" s="13">
+      <c r="AG2" s="11">
         <v>5</v>
       </c>
-      <c r="AH2" s="13">
+      <c r="AH2" s="11">
         <v>7</v>
       </c>
-      <c r="AI2" s="13">
+      <c r="AI2" s="11">
         <v>10</v>
       </c>
-      <c r="AJ2" s="13">
+      <c r="AJ2" s="11">
         <v>14</v>
       </c>
-      <c r="AK2" s="13">
+      <c r="AK2" s="11">
         <v>21</v>
       </c>
-      <c r="AL2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="13">
-        <v>3</v>
-      </c>
-      <c r="AN2" s="13">
+      <c r="AL2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="11">
         <v>7</v>
       </c>
-      <c r="AO2" s="13">
+      <c r="AO2" s="11">
         <v>14</v>
       </c>
-      <c r="AP2" s="13">
+      <c r="AP2" s="11">
         <v>-2</v>
       </c>
-      <c r="AQ2" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="13">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="13">
+      <c r="AQ2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="11">
         <v>2</v>
       </c>
-      <c r="AT2" s="13">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="13">
+      <c r="AT2" s="11">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="11">
         <v>4</v>
       </c>
-      <c r="AV2" s="13">
+      <c r="AV2" s="11">
         <v>5</v>
       </c>
-      <c r="AW2" s="13">
+      <c r="AW2" s="11">
         <v>7</v>
       </c>
-      <c r="AX2" s="13">
+      <c r="AX2" s="11">
         <v>10</v>
       </c>
-      <c r="AY2" s="13">
+      <c r="AY2" s="11">
         <v>14</v>
       </c>
-      <c r="AZ2" s="13">
+      <c r="AZ2" s="11">
         <v>21</v>
       </c>
-      <c r="BA2" s="13">
+      <c r="BA2" s="11">
         <v>-2</v>
       </c>
-      <c r="BB2" s="13">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="13">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="13">
+      <c r="BB2" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="11">
         <v>2</v>
       </c>
-      <c r="BE2" s="13">
-        <v>3</v>
-      </c>
-      <c r="BF2" s="13">
+      <c r="BE2" s="11">
+        <v>3</v>
+      </c>
+      <c r="BF2" s="11">
         <v>4</v>
       </c>
-      <c r="BG2" s="13">
+      <c r="BG2" s="11">
         <v>5</v>
       </c>
-      <c r="BH2" s="13">
+      <c r="BH2" s="11">
         <v>7</v>
       </c>
-      <c r="BI2" s="13">
+      <c r="BI2" s="11">
         <v>10</v>
       </c>
-      <c r="BJ2" s="13">
+      <c r="BJ2" s="11">
         <v>14</v>
       </c>
-      <c r="BK2" s="13">
+      <c r="BK2" s="11">
         <v>21</v>
       </c>
-      <c r="BL2" s="13">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="13">
-        <v>3</v>
-      </c>
-      <c r="BN2" s="13">
+      <c r="BL2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="11">
+        <v>3</v>
+      </c>
+      <c r="BN2" s="11">
         <v>7</v>
       </c>
-      <c r="BO2" s="13">
+      <c r="BO2" s="11">
         <v>14</v>
       </c>
-      <c r="BP2" s="13">
+      <c r="BP2" s="11">
         <v>-2</v>
       </c>
-      <c r="BQ2" s="13">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="13">
-        <v>1</v>
-      </c>
-      <c r="BS2" s="13">
+      <c r="BQ2" s="11">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="11">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="11">
         <v>2</v>
       </c>
-      <c r="BT2" s="13">
-        <v>3</v>
-      </c>
-      <c r="BU2" s="13">
+      <c r="BT2" s="11">
+        <v>3</v>
+      </c>
+      <c r="BU2" s="11">
         <v>4</v>
       </c>
-      <c r="BV2" s="13">
+      <c r="BV2" s="11">
         <v>5</v>
       </c>
-      <c r="BW2" s="13">
+      <c r="BW2" s="11">
         <v>7</v>
       </c>
-      <c r="BX2" s="13">
+      <c r="BX2" s="11">
         <v>10</v>
       </c>
-      <c r="BY2" s="13">
+      <c r="BY2" s="11">
         <v>14</v>
       </c>
-      <c r="BZ2" s="13">
+      <c r="BZ2" s="11">
         <v>21</v>
       </c>
     </row>
@@ -6673,31 +6689,31 @@
       <c r="Q8" s="9">
         <v>0.84275999999999995</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="15">
         <v>0.17005000000000001</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="15">
         <v>-1.3494999999999999</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="15">
         <v>-4.8992000000000001E-2</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="15">
         <v>3.0276999999999998</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="15">
         <v>-1.5105</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="15">
         <v>-7.8493999999999994E-2</v>
       </c>
-      <c r="X8" s="17">
+      <c r="X8" s="15">
         <v>0.26350000000000001</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="15">
         <v>3.6116E-3</v>
       </c>
-      <c r="Z8" s="17">
+      <c r="Z8" s="15">
         <v>-0.12046</v>
       </c>
       <c r="AA8" s="9">
@@ -6909,31 +6925,31 @@
       <c r="Q9" s="9">
         <v>0</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="13">
         <v>3.1713</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="13">
         <v>1.7697000000000001</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="13">
         <v>-7.0780000000000001E-3</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="13">
         <v>1.2294</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="13">
         <v>-0.93122000000000005</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="13">
         <v>0.15737999999999999</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="13">
         <v>0.81652999999999998</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Y9" s="13">
         <v>-1.0661E-2</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="Z9" s="13">
         <v>6.7473000000000005E-2</v>
       </c>
       <c r="AA9" s="9">
@@ -8612,15 +8628,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="20"/>
+    <col min="10" max="10" width="10.83203125" style="20"/>
+    <col min="13" max="13" width="10.83203125" style="21"/>
     <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8633,20 +8652,20 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="3" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -8675,13 +8694,13 @@
       <c r="G3" s="4">
         <v>1.9880999999999999E-2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="19">
         <v>-0.51534999999999997</v>
       </c>
       <c r="I3" s="4">
         <v>-0.39162000000000002</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="19">
         <v>0.34634999999999999</v>
       </c>
       <c r="K3" s="4">
@@ -8690,7 +8709,7 @@
       <c r="L3" s="4">
         <v>-0.26894000000000001</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="23">
         <v>0.36807000000000001</v>
       </c>
       <c r="N3" s="4">
@@ -8719,13 +8738,13 @@
       <c r="G4" s="4">
         <v>2.7030999999999999E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="19">
         <v>-0.45918999999999999</v>
       </c>
       <c r="I4" s="4">
         <v>-0.41388000000000003</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="19">
         <v>0.30130000000000001</v>
       </c>
       <c r="K4" s="4">
@@ -8734,7 +8753,7 @@
       <c r="L4" s="4">
         <v>-0.19656999999999999</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="23">
         <v>0.31023000000000001</v>
       </c>
       <c r="N4" s="4">
@@ -8763,13 +8782,13 @@
       <c r="G5" s="4">
         <v>1.3651E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="19">
         <v>-0.50414000000000003</v>
       </c>
       <c r="I5" s="4">
         <v>-0.77239999999999998</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="19">
         <v>0.29257</v>
       </c>
       <c r="K5" s="4">
@@ -8778,7 +8797,7 @@
       <c r="L5" s="4">
         <v>-0.20644999999999999</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="23">
         <v>0.35610000000000003</v>
       </c>
       <c r="N5" s="4">
@@ -8807,13 +8826,13 @@
       <c r="G6" s="4">
         <v>0.22026999999999999</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="19">
         <v>-0.20529</v>
       </c>
       <c r="I6" s="4">
         <v>-1.0097</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="19">
         <v>0.66639000000000004</v>
       </c>
       <c r="K6" s="4">
@@ -8822,7 +8841,7 @@
       <c r="L6" s="4">
         <v>-0.40032000000000001</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="23">
         <v>0.54005999999999998</v>
       </c>
       <c r="N6" s="4">
@@ -8851,13 +8870,13 @@
       <c r="G7" s="4">
         <v>1.6198000000000001E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="19">
         <v>-0.50756000000000001</v>
       </c>
       <c r="I7" s="4">
         <v>0.55362999999999996</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="19">
         <v>0.15756999999999999</v>
       </c>
       <c r="K7" s="4">
@@ -8866,7 +8885,7 @@
       <c r="L7" s="4">
         <v>0.10635</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="23">
         <v>0.70898000000000005</v>
       </c>
       <c r="N7" s="4">
@@ -8895,13 +8914,13 @@
       <c r="G8" s="4">
         <v>-0.42265999999999998</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="19">
         <v>-0.18536</v>
       </c>
       <c r="I8" s="4">
         <v>-0.43231000000000003</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="19">
         <v>0.16470000000000001</v>
       </c>
       <c r="K8" s="4">
@@ -8910,54 +8929,54 @@
       <c r="L8" s="4">
         <v>-0.26461000000000001</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="23">
         <v>0.47064</v>
       </c>
       <c r="N8" s="4">
         <v>-1.1017999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:14" s="20" customFormat="1">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="19">
         <v>-0.12669</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="19">
         <v>-0.18576000000000001</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="19">
         <v>-0.12222</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="19">
         <v>0.38090000000000002</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="19">
         <v>0.40029999999999999</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="19">
         <v>-0.16078000000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="19">
         <v>-1.2123999999999999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="19">
         <v>1.3896999999999999</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="19">
         <v>-0.37922</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="19">
         <v>0.19189000000000001</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="19">
         <v>-9.6351999999999993E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="23">
         <v>0.22969999999999999</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="19">
         <v>-0.92445999999999995</v>
       </c>
     </row>
@@ -8983,13 +9002,13 @@
       <c r="G10" s="4">
         <v>0.16899</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="19">
         <v>-0.56222000000000005</v>
       </c>
       <c r="I10" s="4">
         <v>-4.3507999999999996</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="19">
         <v>0.44314999999999999</v>
       </c>
       <c r="K10" s="4">
@@ -8998,54 +9017,54 @@
       <c r="L10" s="4">
         <v>-0.2074</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="23">
         <v>0.83004999999999995</v>
       </c>
       <c r="N10" s="4">
         <v>-0.79400999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:14" s="20" customFormat="1">
+      <c r="A11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="19">
         <v>-3.7540999999999998E-2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="19">
         <v>-3.3333000000000002E-2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="19">
         <v>-4.9911999999999998E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="19">
         <v>-9.0424000000000004E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="19">
         <v>-0.10211000000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="19">
         <v>3.2289999999999999E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="19">
         <v>-0.18179000000000001</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="19">
         <v>-0.30301</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="19">
         <v>-5.5765000000000002E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="19">
         <v>1.436E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="19">
         <v>-7.6696999999999998E-3</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="23">
         <v>0.39180999999999999</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="19">
         <v>-0.31272</v>
       </c>
     </row>
@@ -9071,13 +9090,13 @@
       <c r="G12" s="4">
         <v>2.0747999999999999E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="19">
         <v>5.4767000000000003E-2</v>
       </c>
       <c r="I12" s="4">
         <v>-2.0962999999999998</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="19">
         <v>0.11124000000000001</v>
       </c>
       <c r="K12" s="4">
@@ -9086,7 +9105,7 @@
       <c r="L12" s="4">
         <v>2.3816E-2</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="23">
         <v>0.29075000000000001</v>
       </c>
       <c r="N12" s="4">
@@ -9115,13 +9134,13 @@
       <c r="G13" s="4">
         <v>3.3690999999999999E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="19">
         <v>-0.23241999999999999</v>
       </c>
       <c r="I13" s="4">
         <v>-0.39512999999999998</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="19">
         <v>0.31453999999999999</v>
       </c>
       <c r="K13" s="4">
@@ -9130,7 +9149,7 @@
       <c r="L13" s="4">
         <v>-0.3841</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="23">
         <v>0.32367000000000001</v>
       </c>
       <c r="N13" s="4">
@@ -9156,13 +9175,13 @@
       <c r="G14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="25" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="6" t="s">
@@ -9170,6 +9189,58 @@
       </c>
       <c r="L14" s="7" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="20" customFormat="1">
+      <c r="A20" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="24">
+        <v>-1.2123999999999999</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1.3896999999999999</v>
+      </c>
+      <c r="D20" s="19">
+        <v>-0.37922</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.19189000000000001</v>
+      </c>
+      <c r="F20" s="19">
+        <v>-9.6351999999999993E-2</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="H20" s="19">
+        <v>-0.92445999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="20" customFormat="1">
+      <c r="A21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="19">
+        <v>-0.18179000000000001</v>
+      </c>
+      <c r="C21" s="19">
+        <v>-0.30301</v>
+      </c>
+      <c r="D21" s="24">
+        <v>-5.5765000000000002E-2</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1.436E-2</v>
+      </c>
+      <c r="F21" s="19">
+        <v>-7.6696999999999998E-3</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0.39180999999999999</v>
+      </c>
+      <c r="H21" s="19">
+        <v>-0.31272</v>
       </c>
     </row>
   </sheetData>

--- a/Data fitting/journal.pcbi.1003388.s001.XLSX
+++ b/Data fitting/journal.pcbi.1003388.s001.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7942C6E9-D1D4-7445-B8D5-AF38AFB76175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B753FD7-6D1E-F74B-8A78-BC57F83DF03E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Y" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="D_lambda" sheetId="3" r:id="rId3"/>
     <sheet name="MmuE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>undefined_genus_of_Enterobacteriaceae</t>
   </si>
@@ -253,6 +253,18 @@
   <si>
     <t>Replicate</t>
   </si>
+  <si>
+    <t>no jit</t>
+  </si>
+  <si>
+    <t>jit</t>
+  </si>
+  <si>
+    <t>gil</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -502,12 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -518,6 +530,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -929,15 +951,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BZ18"/>
+  <dimension ref="A1:BZ25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BY2" sqref="BY2"/>
+    <sheetView tabSelected="1" topLeftCell="N2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="74.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78">
@@ -992,7 +1015,7 @@
       <c r="Q1">
         <v>3</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="18">
         <v>3</v>
       </c>
       <c r="S1">
@@ -1228,7 +1251,7 @@
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="18">
         <v>1</v>
       </c>
       <c r="S2">
@@ -1464,7 +1487,7 @@
       <c r="Q3">
         <v>3</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="18">
         <v>3</v>
       </c>
       <c r="S3">
@@ -1700,7 +1723,7 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="18">
         <v>2</v>
       </c>
       <c r="S4">
@@ -1941,7 +1964,7 @@
       <c r="Q6" s="1">
         <v>1.9582999999999999E-5</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="18">
         <v>4.6612999999999998</v>
       </c>
       <c r="S6">
@@ -2177,7 +2200,7 @@
       <c r="Q7" s="1">
         <v>5.8749999999999998E-5</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="18">
         <v>7.9905000000000004E-4</v>
       </c>
       <c r="S7">
@@ -2413,7 +2436,7 @@
       <c r="Q8">
         <v>9.7622000000000004E-3</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="18">
         <v>1.0183E-3</v>
       </c>
       <c r="S8">
@@ -2649,7 +2672,7 @@
       <c r="Q9">
         <v>1.7625E-4</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="18">
         <v>1.0965E-3</v>
       </c>
       <c r="S9">
@@ -2885,7 +2908,7 @@
       <c r="Q10">
         <v>7.3632999999999997E-3</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="18">
         <v>1.1429999999999999E-3</v>
       </c>
       <c r="S10">
@@ -3069,475 +3092,475 @@
         <v>2.1061999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:78">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:78" s="18" customFormat="1">
+      <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="18">
         <v>3.3082E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="18">
         <v>1.9715999999999999E-4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="18">
         <v>5.1715999999999998E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="18">
         <v>9.4701000000000004E-3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="18">
         <v>0.50641999999999998</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="18">
         <v>0.31196000000000002</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="18">
         <v>0.28450999999999999</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="18">
         <v>1.4113E-4</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="18">
         <v>2.2080999999999999E-4</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="27">
         <v>8.2377000000000008E-6</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="27">
         <v>1.9094E-5</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
+      <c r="N11" s="18">
+        <v>0</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="27">
         <v>2.9374E-5</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="28">
         <v>1.5847999999999999E-4</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="28">
         <v>1.8786000000000001E-4</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="29">
         <v>4.8724000000000003E-5</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="29">
         <v>4.6394000000000003E-5</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="28">
         <v>9.5806999999999999E-4</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="28">
         <v>2.1153E-4</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="28">
         <v>1.4286999999999999E-4</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="28">
         <v>4.0989999999999999E-4</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="28">
         <v>4.2038999999999998E-4</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="18">
         <v>5.6424000000000003E-4</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="27">
         <v>5.9861999999999997E-5</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11" s="27">
         <v>4.9539000000000001E-5</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="18">
         <v>1.7785000000000001E-4</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="18">
         <v>1.6580999999999999</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="18">
         <v>0.84491000000000005</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="18">
         <v>0.36703999999999998</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11" s="27">
         <v>6.3485999999999995E-5</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="18">
         <v>1.2005E-4</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="27">
         <v>5.0834999999999997E-5</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AK11" s="27">
         <v>6.1561000000000002E-6</v>
       </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
+      <c r="AL11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="18">
         <v>6.6396999999999995E-4</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" s="18">
         <v>1.9589E-4</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="18">
         <v>5.6944999999999999E-4</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="18">
         <v>1.7545000000000001E-4</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" s="18">
         <v>1.6829E-4</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" s="18">
         <v>1.4055000000000001E-3</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" s="18">
         <v>3.9188E-4</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" s="18">
         <v>4.3671999999999998E-4</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" s="18">
         <v>1.068E-2</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" s="18">
         <v>9.9000999999999994E-4</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" s="18">
         <v>1.4143000000000001E-3</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" s="18">
         <v>7.3287000000000005E-4</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" s="18">
         <v>2.3881E-4</v>
       </c>
-      <c r="BC11" s="1">
+      <c r="BC11" s="27">
         <v>9.1941000000000006E-5</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" s="18">
         <v>7.6064000000000001E-3</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" s="18">
         <v>0.97933000000000003</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" s="18">
         <v>1.9879</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" s="18">
         <v>0.67456000000000005</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" s="18">
         <v>1.9024999999999999E-4</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" s="18">
         <v>3.6747E-4</v>
       </c>
-      <c r="BJ11" s="1">
+      <c r="BJ11" s="27">
         <v>5.2747999999999997E-5</v>
       </c>
-      <c r="BK11" s="1">
+      <c r="BK11" s="27">
         <v>4.7315999999999999E-5</v>
       </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
+      <c r="BL11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="18">
         <v>3.4809000000000001E-4</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" s="18">
         <v>1.5784999999999999E-4</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" s="18">
         <v>4.8629000000000001E-4</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" s="18">
         <v>8.5068000000000003E-4</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" s="18">
         <v>5.3510999999999999E-4</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" s="18">
         <v>1.1877000000000001E-3</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" s="18">
         <v>1.1345000000000001E-3</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" s="18">
         <v>4.9582999999999995E-4</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" s="18">
         <v>1.7721E-3</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" s="18">
         <v>1.1161999999999999E-3</v>
       </c>
-      <c r="BZ11">
+      <c r="BZ11" s="18">
         <v>3.2203000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:78">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:78" s="18" customFormat="1">
+      <c r="A12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
+      <c r="N12" s="18">
+        <v>0</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
+      <c r="P12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>0</v>
+      </c>
+      <c r="R12" s="28">
         <v>1.7064000000000001E-4</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="28">
         <v>4.0677999999999999E-3</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="28">
         <v>2.3875E-2</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="28">
         <v>2.3706000000000001E-2</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="28">
         <v>8.1055000000000002E-2</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="28">
         <v>3.1940999999999997E-2</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="28">
         <v>7.0163000000000003E-2</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="28">
         <v>1.8389</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="28">
         <v>1.7067000000000001</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
+      <c r="AA12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="18">
         <v>1.95E-4</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" s="18">
         <v>5.9412E-2</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" s="18">
         <v>0.14280999999999999</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" s="18">
         <v>4.4850000000000001E-2</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" s="18">
         <v>0.15406</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" s="18">
         <v>5.1755000000000004E-3</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" s="18">
         <v>9.0550000000000005E-2</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" s="18">
         <v>1.3591</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" s="18">
         <v>2.5874000000000001</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" s="18">
         <v>2.7176</v>
       </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
+      <c r="BA12" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="18">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="18">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="18">
         <v>9.6745999999999996E-4</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" s="18">
         <v>2.0552999999999999E-3</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" s="18">
         <v>9.9643999999999991E-4</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" s="18">
         <v>7.938E-4</v>
       </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
+      <c r="BP12" s="18">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="18">
         <v>1.7134E-4</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" s="18">
         <v>3.5278000000000002E-3</v>
       </c>
-      <c r="BS12" s="1">
+      <c r="BS12" s="27">
         <v>9.4523000000000003E-5</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" s="18">
         <v>1.8446000000000001E-2</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" s="18">
         <v>0.19833999999999999</v>
       </c>
-      <c r="BV12">
+      <c r="BV12" s="18">
         <v>0.12017</v>
       </c>
-      <c r="BW12">
+      <c r="BW12" s="18">
         <v>1.295E-2</v>
       </c>
-      <c r="BX12">
+      <c r="BX12" s="18">
         <v>0.24168000000000001</v>
       </c>
-      <c r="BY12">
+      <c r="BY12" s="18">
         <v>3.2082000000000002</v>
       </c>
-      <c r="BZ12">
+      <c r="BZ12" s="18">
         <v>3.0464000000000002</v>
       </c>
     </row>
@@ -3593,7 +3616,7 @@
       <c r="Q13">
         <v>3.5542999999999998E-3</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="18">
         <v>2.9452999999999999E-4</v>
       </c>
       <c r="S13">
@@ -3829,7 +3852,7 @@
       <c r="Q14" s="1">
         <v>1.9582999999999999E-5</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="18">
         <v>9.6095000000000002E-4</v>
       </c>
       <c r="S14">
@@ -4065,7 +4088,7 @@
       <c r="Q15" s="1">
         <v>2.4913000000000002E-6</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="18">
         <v>2.9079000000000003E-4</v>
       </c>
       <c r="S15">
@@ -4301,7 +4324,7 @@
       <c r="Q16">
         <v>1.1583E-2</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="18">
         <v>1.2573000000000001E-2</v>
       </c>
       <c r="S16">
@@ -4537,7 +4560,7 @@
       <c r="Q17">
         <v>1</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="18">
         <v>1</v>
       </c>
       <c r="S17">
@@ -4773,7 +4796,7 @@
       <c r="Q18">
         <v>1</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="18">
         <v>0</v>
       </c>
       <c r="S18">
@@ -4955,6 +4978,40 @@
       </c>
       <c r="BZ18">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:78">
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:78">
+      <c r="T24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24">
+        <f>(25.4+24.28+23.16+24.43+23.03)/5</f>
+        <v>24.060000000000002</v>
+      </c>
+      <c r="V24">
+        <f>(51.1+45.09+46.98+45.78+45.01)/5</f>
+        <v>46.791999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:78">
+      <c r="T25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25">
+        <f>(0.66+0.61+0.64+0.46+0.65)/5</f>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="V25">
+        <f>(1.27+1.33+1.18+1.38+1.21)/5</f>
+        <v>1.274</v>
       </c>
     </row>
   </sheetData>
@@ -8630,16 +8687,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="20"/>
-    <col min="10" max="10" width="10.83203125" style="20"/>
-    <col min="13" max="13" width="10.83203125" style="21"/>
+    <col min="8" max="8" width="10.83203125" style="18"/>
+    <col min="10" max="10" width="10.83203125" style="18"/>
+    <col min="13" max="13" width="10.83203125" style="19"/>
     <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8652,20 +8707,20 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="20" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -8694,13 +8749,13 @@
       <c r="G3" s="4">
         <v>1.9880999999999999E-2</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <v>-0.51534999999999997</v>
       </c>
       <c r="I3" s="4">
         <v>-0.39162000000000002</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="17">
         <v>0.34634999999999999</v>
       </c>
       <c r="K3" s="4">
@@ -8709,7 +8764,7 @@
       <c r="L3" s="4">
         <v>-0.26894000000000001</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="21">
         <v>0.36807000000000001</v>
       </c>
       <c r="N3" s="4">
@@ -8738,13 +8793,13 @@
       <c r="G4" s="4">
         <v>2.7030999999999999E-2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>-0.45918999999999999</v>
       </c>
       <c r="I4" s="4">
         <v>-0.41388000000000003</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>0.30130000000000001</v>
       </c>
       <c r="K4" s="4">
@@ -8753,7 +8808,7 @@
       <c r="L4" s="4">
         <v>-0.19656999999999999</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="21">
         <v>0.31023000000000001</v>
       </c>
       <c r="N4" s="4">
@@ -8782,13 +8837,13 @@
       <c r="G5" s="4">
         <v>1.3651E-2</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <v>-0.50414000000000003</v>
       </c>
       <c r="I5" s="4">
         <v>-0.77239999999999998</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <v>0.29257</v>
       </c>
       <c r="K5" s="4">
@@ -8797,7 +8852,7 @@
       <c r="L5" s="4">
         <v>-0.20644999999999999</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="21">
         <v>0.35610000000000003</v>
       </c>
       <c r="N5" s="4">
@@ -8826,13 +8881,13 @@
       <c r="G6" s="4">
         <v>0.22026999999999999</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <v>-0.20529</v>
       </c>
       <c r="I6" s="4">
         <v>-1.0097</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="17">
         <v>0.66639000000000004</v>
       </c>
       <c r="K6" s="4">
@@ -8841,7 +8896,7 @@
       <c r="L6" s="4">
         <v>-0.40032000000000001</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="21">
         <v>0.54005999999999998</v>
       </c>
       <c r="N6" s="4">
@@ -8870,13 +8925,13 @@
       <c r="G7" s="4">
         <v>1.6198000000000001E-2</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <v>-0.50756000000000001</v>
       </c>
       <c r="I7" s="4">
         <v>0.55362999999999996</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="17">
         <v>0.15756999999999999</v>
       </c>
       <c r="K7" s="4">
@@ -8885,7 +8940,7 @@
       <c r="L7" s="4">
         <v>0.10635</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="21">
         <v>0.70898000000000005</v>
       </c>
       <c r="N7" s="4">
@@ -8914,13 +8969,13 @@
       <c r="G8" s="4">
         <v>-0.42265999999999998</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <v>-0.18536</v>
       </c>
       <c r="I8" s="4">
         <v>-0.43231000000000003</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="17">
         <v>0.16470000000000001</v>
       </c>
       <c r="K8" s="4">
@@ -8929,54 +8984,54 @@
       <c r="L8" s="4">
         <v>-0.26461000000000001</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="21">
         <v>0.47064</v>
       </c>
       <c r="N8" s="4">
         <v>-1.1017999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="20" customFormat="1">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:14" s="18" customFormat="1">
+      <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>-0.12669</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <v>-0.18576000000000001</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>-0.12222</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>0.38090000000000002</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <v>0.40029999999999999</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <v>-0.16078000000000001</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>-1.2123999999999999</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <v>1.3896999999999999</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="24">
         <v>-0.37922</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <v>0.19189000000000001</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="17">
         <v>-9.6351999999999993E-2</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="21">
         <v>0.22969999999999999</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="17">
         <v>-0.92445999999999995</v>
       </c>
     </row>
@@ -9002,13 +9057,13 @@
       <c r="G10" s="4">
         <v>0.16899</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>-0.56222000000000005</v>
       </c>
       <c r="I10" s="4">
         <v>-4.3507999999999996</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="17">
         <v>0.44314999999999999</v>
       </c>
       <c r="K10" s="4">
@@ -9017,54 +9072,54 @@
       <c r="L10" s="4">
         <v>-0.2074</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="21">
         <v>0.83004999999999995</v>
       </c>
       <c r="N10" s="4">
         <v>-0.79400999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="20" customFormat="1">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:14" s="18" customFormat="1">
+      <c r="A11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <v>-3.7540999999999998E-2</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>-3.3333000000000002E-2</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <v>-4.9911999999999998E-2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>-9.0424000000000004E-2</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>-0.10211000000000001</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <v>3.2289999999999999E-2</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="24">
         <v>-0.18179000000000001</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <v>-0.30301</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <v>-5.5765000000000002E-2</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="17">
         <v>1.436E-2</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="17">
         <v>-7.6696999999999998E-3</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="21">
         <v>0.39180999999999999</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="17">
         <v>-0.31272</v>
       </c>
     </row>
@@ -9090,13 +9145,13 @@
       <c r="G12" s="4">
         <v>2.0747999999999999E-2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>5.4767000000000003E-2</v>
       </c>
       <c r="I12" s="4">
         <v>-2.0962999999999998</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="17">
         <v>0.11124000000000001</v>
       </c>
       <c r="K12" s="4">
@@ -9105,7 +9160,7 @@
       <c r="L12" s="4">
         <v>2.3816E-2</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="21">
         <v>0.29075000000000001</v>
       </c>
       <c r="N12" s="4">
@@ -9134,13 +9189,13 @@
       <c r="G13" s="4">
         <v>3.3690999999999999E-2</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>-0.23241999999999999</v>
       </c>
       <c r="I13" s="4">
         <v>-0.39512999999999998</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="17">
         <v>0.31453999999999999</v>
       </c>
       <c r="K13" s="4">
@@ -9149,7 +9204,7 @@
       <c r="L13" s="4">
         <v>-0.3841</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="21">
         <v>0.32367000000000001</v>
       </c>
       <c r="N13" s="4">
@@ -9175,13 +9230,13 @@
       <c r="G14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="23" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="23" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="6" t="s">
@@ -9191,55 +9246,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="20" customFormat="1">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:8" s="18" customFormat="1">
+      <c r="A20" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="22">
         <v>-1.2123999999999999</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>1.3896999999999999</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="17">
         <v>-0.37922</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="17">
         <v>0.19189000000000001</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="17">
         <v>-9.6351999999999993E-2</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="21">
         <v>0.22969999999999999</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <v>-0.92445999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="20" customFormat="1">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:8" s="18" customFormat="1">
+      <c r="A21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="17">
         <v>-0.18179000000000001</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>-0.30301</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="22">
         <v>-5.5765000000000002E-2</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <v>1.436E-2</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="17">
         <v>-7.6696999999999998E-3</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="21">
         <v>0.39180999999999999</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="17">
         <v>-0.31272</v>
       </c>
     </row>
